--- a/CodeSystem-OtherSampleDiagnosis.xlsx
+++ b/CodeSystem-OtherSampleDiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T15:55:49+00:00</t>
+    <t>2022-05-16T14:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-OtherSampleDiagnosis.xlsx
+++ b/CodeSystem-OtherSampleDiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T14:53:21+00:00</t>
+    <t>2023-02-08T10:28:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-OtherSampleDiagnosis.xlsx
+++ b/CodeSystem-OtherSampleDiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T10:28:33+00:00</t>
+    <t>2023-09-01T08:46:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,10 +278,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-OtherSampleDiagnosis.xlsx
+++ b/CodeSystem-OtherSampleDiagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:46:52+00:00</t>
+    <t>2023-09-01T11:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
